--- a/Database/Data User dan Buku.xlsx
+++ b/Database/Data User dan Buku.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectC#\Database\Data Buku &amp; Siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1983,7 +1983,7 @@
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="8" customWidth="1"/>
     <col min="7" max="7" width="23.109375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -2008,10 +2008,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>204</v>
@@ -2037,11 +2037,11 @@
       <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="1">
         <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -2065,11 +2065,11 @@
       <c r="G3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2093,11 +2093,11 @@
       <c r="G4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -2121,11 +2121,11 @@
       <c r="G5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="1">
         <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -2149,11 +2149,11 @@
       <c r="G6" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="1">
         <v>3</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -2177,11 +2177,11 @@
       <c r="G7" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="1">
         <v>3</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -2205,11 +2205,11 @@
       <c r="G8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="1">
         <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -2233,11 +2233,11 @@
       <c r="G9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -2261,11 +2261,11 @@
       <c r="G10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1">
         <v>3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2289,11 +2289,11 @@
       <c r="G11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="1">
         <v>2</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -2317,11 +2317,11 @@
       <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="1">
         <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -2345,11 +2345,11 @@
       <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="1">
         <v>2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2373,11 +2373,11 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="1">
         <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -2401,11 +2401,11 @@
       <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="1">
         <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2429,11 +2429,11 @@
       <c r="G16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -2457,11 +2457,11 @@
       <c r="G17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="1">
         <v>2</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -2485,11 +2485,11 @@
       <c r="G18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -2513,11 +2513,11 @@
       <c r="G19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" s="1">
         <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2541,11 +2541,11 @@
       <c r="G20" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="1">
         <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -2569,153 +2569,43 @@
       <c r="G21" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="F24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="F25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="F26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="F27"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="F28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="F29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="F30"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="F31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Data User dan Buku.xlsx
+++ b/Database/Data User dan Buku.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andyy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectC#\Library\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8ADBB403-12C5-4364-9A3D-70F1AF47D19B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="Books" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -720,7 +721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1127,11 +1128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,11 +1970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Database/Data User dan Buku.xlsx
+++ b/Database/Data User dan Buku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectC#\Database\Data Buku &amp; Siswa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectC#\Library\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,9 +186,6 @@
     <t>Computer Vision in Control Systems-1: Mathematical Theory</t>
   </si>
   <si>
-    <t>Margarita N. Favorskaya;Lakhmi C. Jain</t>
-  </si>
-  <si>
     <t>Game Programming Patterns</t>
   </si>
   <si>
@@ -543,96 +540,33 @@
     <t>profil.png</t>
   </si>
   <si>
-    <t>img001.jpg;img001-2.jpg</t>
-  </si>
-  <si>
-    <t>img002.jpg;img002-2.jpg</t>
-  </si>
-  <si>
-    <t>img003.jpg;img003-2.png</t>
-  </si>
-  <si>
-    <t>img004.jpg;img004-2.jpg</t>
-  </si>
-  <si>
-    <t>img005.jpg;img005-2.jpg</t>
-  </si>
-  <si>
-    <t>img006.jpg;img006-2.png</t>
-  </si>
-  <si>
-    <t>img007.jpg;img007-2.png</t>
-  </si>
-  <si>
-    <t>img008.jpg;img008-2.png</t>
-  </si>
-  <si>
-    <t>img009.jpg;img009-2.png</t>
-  </si>
-  <si>
-    <t>img010.jpg;img010-2.png</t>
-  </si>
-  <si>
-    <t>img011.jpg;img011-2.png</t>
-  </si>
-  <si>
-    <t>img012.jpg;img012-2.png</t>
-  </si>
-  <si>
-    <t>img013.jpg;img013-2.jpg</t>
-  </si>
-  <si>
-    <t>img014.png;img014-2.jpg</t>
-  </si>
-  <si>
-    <t>img015.jpg;img015-2.jpg</t>
-  </si>
-  <si>
     <t>Corel Draw untuk Pemula - Pasti Bisa</t>
   </si>
   <si>
     <t>Feri Sulianta</t>
   </si>
   <si>
-    <t>img016.jpg;img016-2.png</t>
-  </si>
-  <si>
     <t>Google AdSense untuk Pemula</t>
   </si>
   <si>
     <t>Jubilee Enterprise</t>
   </si>
   <si>
-    <t>img017.jpg;img017-2.jpg</t>
-  </si>
-  <si>
     <t>Panduan Singkat Menguasai Router Mikrotik untuk Pemula</t>
   </si>
   <si>
     <t>Athailah</t>
   </si>
   <si>
-    <t>img018.jpg;img018-2.jpg</t>
-  </si>
-  <si>
     <t>Android Hacking</t>
   </si>
   <si>
     <t>Dedik Kurniawan,Java</t>
   </si>
   <si>
-    <t>img019.jpg;img019-2.jpg</t>
-  </si>
-  <si>
     <t>Visual Studio LightSwitch : Learning by Doing: Vol. 1</t>
   </si>
   <si>
-    <t>Junindar;Erick Kurniawan</t>
-  </si>
-  <si>
-    <t>img020.jpg;img020-2.png</t>
-  </si>
-  <si>
     <t>Publisher</t>
   </si>
   <si>
@@ -715,6 +649,72 @@
   </si>
   <si>
     <t>'+6281963248684</t>
+  </si>
+  <si>
+    <t>img001.jpg|img001-2.jpg</t>
+  </si>
+  <si>
+    <t>img002.jpg|img002-2.jpg</t>
+  </si>
+  <si>
+    <t>img003.jpg|img003-2.png</t>
+  </si>
+  <si>
+    <t>img004.jpg|img004-2.jpg</t>
+  </si>
+  <si>
+    <t>img005.jpg|img005-2.jpg</t>
+  </si>
+  <si>
+    <t>img006.jpg|img006-2.png</t>
+  </si>
+  <si>
+    <t>img007.jpg|img007-2.png</t>
+  </si>
+  <si>
+    <t>img008.jpg|img008-2.png</t>
+  </si>
+  <si>
+    <t>Margarita N. Favorskaya|Lakhmi C. Jain</t>
+  </si>
+  <si>
+    <t>img009.jpg|img009-2.png</t>
+  </si>
+  <si>
+    <t>img010.jpg|img010-2.png</t>
+  </si>
+  <si>
+    <t>img011.jpg|img011-2.png</t>
+  </si>
+  <si>
+    <t>img012.jpg|img012-2.png</t>
+  </si>
+  <si>
+    <t>img013.jpg|img013-2.jpg</t>
+  </si>
+  <si>
+    <t>img014.png|img014-2.jpg</t>
+  </si>
+  <si>
+    <t>img015.jpg|img015-2.jpg</t>
+  </si>
+  <si>
+    <t>img016.jpg|img016-2.png</t>
+  </si>
+  <si>
+    <t>img017.jpg|img017-2.jpg</t>
+  </si>
+  <si>
+    <t>img018.jpg|img018-2.jpg</t>
+  </si>
+  <si>
+    <t>img019.jpg|img019-2.jpg</t>
+  </si>
+  <si>
+    <t>Junindar|Erick Kurniawan</t>
+  </si>
+  <si>
+    <t>img020.jpg|img020-2.png</t>
   </si>
 </sst>
 </file>
@@ -1177,28 +1177,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>72</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1273,28 +1273,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1305,28 +1305,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1337,28 +1337,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1401,28 +1401,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1433,28 +1433,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1465,28 +1465,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1497,28 +1497,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>116</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1529,28 +1529,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1561,28 +1561,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>138</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>141</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1625,25 +1625,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
@@ -1655,25 +1655,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
@@ -1685,25 +1685,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
@@ -1715,25 +1715,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
@@ -1745,25 +1745,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
@@ -1775,28 +1775,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1807,28 +1807,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -1839,28 +1839,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -1871,28 +1871,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -1903,28 +1903,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -1935,28 +1935,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>12</v>
@@ -2014,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2035,10 +2035,10 @@
         <v>2018</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -2063,10 +2063,10 @@
         <v>2017</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -2091,10 +2091,10 @@
         <v>2015</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -2119,10 +2119,10 @@
         <v>2017</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
@@ -2147,10 +2147,10 @@
         <v>2017</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -2175,10 +2175,10 @@
         <v>2013</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -2203,10 +2203,10 @@
         <v>2015</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -2231,10 +2231,10 @@
         <v>2008</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2252,17 +2252,17 @@
         <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="7">
         <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -2277,20 +2277,20 @@
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="7">
         <v>2014</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -2305,20 +2305,20 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="7">
         <v>2018</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -2333,20 +2333,20 @@
         <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="7">
         <v>2012</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -2361,20 +2361,20 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="7">
         <v>2016</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
@@ -2389,20 +2389,20 @@
         <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="7">
         <v>2014</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -2417,20 +2417,20 @@
         <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="7">
         <v>2018</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -2445,20 +2445,20 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="7">
         <v>2013</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -2473,20 +2473,20 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="7">
         <v>2013</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -2501,20 +2501,20 @@
         <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="7">
         <v>2013</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -2529,20 +2529,20 @@
         <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="7">
         <v>2016</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="I20" s="1">
         <v>3</v>
@@ -2557,20 +2557,20 @@
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="7">
         <v>2017</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
